--- a/Test Data/TC_53550_Verify_DC_Unit_For_Multiple_Built_In_Non_Built_In_Isolator_Devices_Integral_Non_Integral_LED_of_PFI.xlsx
+++ b/Test Data/TC_53550_Verify_DC_Unit_For_Multiple_Built_In_Non_Built_In_Isolator_Devices_Integral_Non_Integral_LED_of_PFI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdhakaa\Documents\NG Consys Project\Testing\NGConsys Automation\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AB237A-224A-426D-8EF5-8E0150F98640}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769BF380-E688-48A7-BC10-4C27CC1E3EBB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Device</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>NGC-1139/TC-53550</t>
+  </si>
+  <si>
+    <t>DC Unit Loading Details Name</t>
+  </si>
+  <si>
+    <t>Current (DC Units)</t>
   </si>
 </sst>
 </file>
@@ -516,7 +522,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -539,6 +545,9 @@
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
+      <c r="F1" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -552,6 +561,9 @@
         <v>7</v>
       </c>
       <c r="D2" s="13"/>
+      <c r="F2" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">

--- a/Test Data/TC_53550_Verify_DC_Unit_For_Multiple_Built_In_Non_Built_In_Isolator_Devices_Integral_Non_Integral_LED_of_PFI.xlsx
+++ b/Test Data/TC_53550_Verify_DC_Unit_For_Multiple_Built_In_Non_Built_In_Isolator_Devices_Integral_Non_Integral_LED_of_PFI.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769BF380-E688-48A7-BC10-4C27CC1E3EBB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Devices" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,8 +29,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Alpesh Dhakad</author>
+  </authors>
+  <commentList>
+    <comment ref="I8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Alpesh Dhakad:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+5BI 5" [517.050.018] &amp; 801RIL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Alpesh Dhakad:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+5BI 5" [517.050.018] &amp; 801RIL</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Device</t>
   </si>
@@ -66,9 +123,6 @@
     <t>850 PH</t>
   </si>
   <si>
-    <t>Assign Base/Default Base</t>
-  </si>
-  <si>
     <t xml:space="preserve">Description </t>
   </si>
   <si>
@@ -105,9 +159,6 @@
     <t>Isolator Properties Checkbox state</t>
   </si>
   <si>
-    <t>5BI 5" [517.050.018] &amp; 801RIL</t>
-  </si>
-  <si>
     <t>verifyTripCurrentOnBaseChange</t>
   </si>
   <si>
@@ -121,13 +172,16 @@
   </si>
   <si>
     <t>Current (DC Units)</t>
+  </si>
+  <si>
+    <t>Assign Base/Default Base Row</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +203,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -518,11 +585,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,53 +613,53 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="F1" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="13"/>
       <c r="F2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
       <c r="D5" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -606,13 +673,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>3</v>
@@ -621,7 +688,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>9</v>
@@ -635,7 +702,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3">
         <v>273.3</v>
@@ -652,22 +719,22 @@
       <c r="H8" s="7">
         <v>1.3</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>24</v>
+      <c r="I8" s="6">
+        <v>14</v>
       </c>
       <c r="J8" s="6">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="3">
         <v>298.60000000000002</v>
@@ -684,11 +751,11 @@
       <c r="H9" s="7">
         <v>1.2</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>24</v>
+      <c r="I9" s="6">
+        <v>11</v>
       </c>
       <c r="J9" s="6">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -698,5 +765,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Test Data/TC_53550_Verify_DC_Unit_For_Multiple_Built_In_Non_Built_In_Isolator_Devices_Integral_Non_Integral_LED_of_PFI.xlsx
+++ b/Test Data/TC_53550_Verify_DC_Unit_For_Multiple_Built_In_Non_Built_In_Isolator_Devices_Integral_Non_Integral_LED_of_PFI.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC3ECA6-6C3C-4BCD-BA14-72E6226543E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Devices" sheetId="6" r:id="rId1"/>
@@ -19,23 +20,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Alpesh Dhakad</author>
   </authors>
   <commentList>
-    <comment ref="I8" authorId="0" shapeId="0">
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -59,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0" shapeId="0">
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -180,7 +175,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -585,11 +580,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -705,10 +700,10 @@
         <v>17</v>
       </c>
       <c r="D8" s="3">
-        <v>273.3</v>
+        <v>257</v>
       </c>
       <c r="E8" s="3">
-        <v>285.60000000000002</v>
+        <v>274</v>
       </c>
       <c r="F8" s="6" t="b">
         <v>1</v>
@@ -737,10 +732,10 @@
         <v>19</v>
       </c>
       <c r="D9" s="3">
-        <v>298.60000000000002</v>
+        <v>287</v>
       </c>
       <c r="E9" s="3">
-        <v>350.9</v>
+        <v>327</v>
       </c>
       <c r="F9" s="6" t="b">
         <v>0</v>
